--- a/medicine/Sexualité et sexologie/Sanctuary_(film,_2022)/Sanctuary_(film,_2022).xlsx
+++ b/medicine/Sexualité et sexologie/Sanctuary_(film,_2022)/Sanctuary_(film,_2022).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Soumission (Sanctuary) est un thriller érotique américain réalisé par Zachary Wigon (en), sorti en 2022.
 Il est présenté au festival international du film de Toronto 2022.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de son père, Hal est sur le point d'hériter de son immense fortune. Il décide donc de rompre pour de bon avec Rebecca, sa maîtresse dominatrice. Mais ses tentatives pour rompre leurs liens ne se déroulent pas exactement comme prévu, et les choses dégénèrent.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Sanctuary
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christopher Abbott (VF : Christophe Hespel) : Hal
 Margaret Qualley (VF : Edwige Lemoine) : Rebecca</t>
@@ -623,6 +641,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
